--- a/data/Cell_counts.xlsx
+++ b/data/Cell_counts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/jeh6121_psu_edu/Documents/Documents/Github/BONCAT_gradients/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="761" documentId="13_ncr:40009_{A912F6BE-E04E-489E-B722-1DA20E602633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AE9C9A2-9913-4556-BCD4-AEF38B02985F}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="13_ncr:40009_{A912F6BE-E04E-489E-B722-1DA20E602633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3737EE5-2FFC-4978-815D-AAB0E79DAA39}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clover" sheetId="2" r:id="rId1"/>
@@ -1204,27 +1204,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E81875-75BB-4DB6-AA2A-863D8D32D31D}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.86328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>54600000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>44433333.333333328</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>48666666.666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
@@ -1597,7 +1597,7 @@
         <v>44033333.333333328</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -1644,7 +1644,7 @@
         <v>47033333.333333328</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>37</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -1691,7 +1691,7 @@
         <v>74433333.333333343</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
@@ -1738,7 +1738,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>270399999.99999994</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>147600000</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>133333.33333333334</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>150600000</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>136800000.00000003</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>211866666.66666669</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>172333333.33333334</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>109466666.66666666</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>222400000</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>278000000</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>87</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>66</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>64</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>69</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>71</v>
       </c>
@@ -3266,7 +3266,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>79</v>
       </c>
